--- a/TestCasesHM.xlsx
+++ b/TestCasesHM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="7740" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC1" sheetId="4" r:id="rId1"/>
@@ -85,18 +85,9 @@
     <t>Verify that the home page has been opened</t>
   </si>
   <si>
-    <t>Checking if the link attached to the logo button redirects the user to the home page</t>
-  </si>
-  <si>
-    <t>Checking if the search results will appear after provide incorrect input data</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>Checking if the all links in a footer are working properly</t>
-  </si>
-  <si>
     <t>Scroll down to the footer section</t>
   </si>
   <si>
@@ -127,9 +118,6 @@
     <t>Test data</t>
   </si>
   <si>
-    <t>Verification of the logo-TC2</t>
-  </si>
-  <si>
     <t>Click on "Koszyk" button on the top right corner of the page</t>
   </si>
   <si>
@@ -163,18 +151,12 @@
     <t>item has been removed from search box</t>
   </si>
   <si>
-    <t>Checking if the search results will appear properly after provide item name in "Szukaj produktów" box and press ENTER on the keyboard</t>
-  </si>
-  <si>
     <t>Press the Enter button on keyboard</t>
   </si>
   <si>
     <t>the button has been pressed</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking if the search results will appear properly after provide item name in "Szukaj produktów" box and click on magnifier icon </t>
-  </si>
-  <si>
     <t>Click on magnifier icon</t>
   </si>
   <si>
@@ -184,9 +166,6 @@
     <t>Verification of the Magazine link-TC1</t>
   </si>
   <si>
-    <t>checking if the link redirects the user to the expected page</t>
-  </si>
-  <si>
     <t>Scroll page down to reach READ H&amp;M MAGAZINE btton</t>
   </si>
   <si>
@@ -223,15 +202,9 @@
     <t>17 separate tabs have been opened</t>
   </si>
   <si>
-    <t>Favorites-TC7</t>
-  </si>
-  <si>
     <t>Main menu-TC8</t>
   </si>
   <si>
-    <t>Validate that the proper pages are opened when clicking on specific values</t>
-  </si>
-  <si>
     <t>value has been pointed</t>
   </si>
   <si>
@@ -253,9 +226,6 @@
     <t>"Łazienka" is displayed</t>
   </si>
   <si>
-    <t>Checking if the item marked as favorite will appear in Favorities tab</t>
-  </si>
-  <si>
     <t>buty, 1</t>
   </si>
   <si>
@@ -301,7 +271,37 @@
     <t>Search results - TC4</t>
   </si>
   <si>
-    <t>Footer links validation -TC6</t>
+    <t>Favourites-TC7</t>
+  </si>
+  <si>
+    <t>Footer - TC6</t>
+  </si>
+  <si>
+    <t>Validation that the search results will appear after provide incorrect input data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation that the search results will appear properly after provide item name in "Szukaj produktów" box and click on magnifier icon </t>
+  </si>
+  <si>
+    <t>Logo veryfication-TC2</t>
+  </si>
+  <si>
+    <t>Validation that the search results will appear properly after provide item name in "Szukaj produktów" box and press ENTER on the keyboard</t>
+  </si>
+  <si>
+    <t>Validation that the proper pages are opened when clicking on specific values</t>
+  </si>
+  <si>
+    <t>Validation that the item marked as favourite will appear in Favourites tab</t>
+  </si>
+  <si>
+    <t>Validation that the all links in a footer are working properly</t>
+  </si>
+  <si>
+    <t>Validation that the link attached to the logo button redirects the user to the home page</t>
+  </si>
+  <si>
+    <t>Validation that the link redirects the user to the expected page</t>
   </si>
 </sst>
 </file>
@@ -768,7 +768,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -779,7 +779,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -795,7 +795,7 @@
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D1" s="18"/>
     </row>
@@ -805,13 +805,13 @@
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="18" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="19"/>
@@ -823,17 +823,17 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="18"/>
     </row>
@@ -896,13 +896,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1076,12 +1076,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B2"/>
@@ -1090,6 +1084,12 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="18" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D1" s="18"/>
     </row>
@@ -1126,13 +1126,13 @@
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="18" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="19"/>
@@ -1144,17 +1144,17 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="18"/>
     </row>
@@ -1211,7 +1211,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>16</v>
@@ -1239,7 +1239,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
@@ -1389,6 +1389,376 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="66.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45">
+      <c r="A13" s="4">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30">
+      <c r="A15" s="4">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45">
+      <c r="A17" s="4">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30">
+      <c r="A18" s="4">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30">
+      <c r="A19" s="4">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45">
+      <c r="A21" s="4">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4">
+        <v>15</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4">
+        <v>17</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5">
+        <v>18</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5">
+        <v>19</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1411,12 +1781,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1432,7 +1802,7 @@
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="18" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D1" s="18"/>
     </row>
@@ -1442,17 +1812,17 @@
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="21" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3" s="24"/>
     </row>
@@ -1462,17 +1832,17 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="18"/>
     </row>
@@ -1529,13 +1899,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1543,13 +1913,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45">
@@ -1557,13 +1927,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30">
@@ -1571,13 +1941,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30">
@@ -1585,13 +1955,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1599,13 +1969,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45">
@@ -1613,13 +1983,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30">
@@ -1627,13 +1997,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30">
@@ -1641,13 +2011,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1655,13 +2025,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45">
@@ -1669,13 +2039,13 @@
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1684,7 +2054,7 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4">
@@ -1692,7 +2062,7 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4">
@@ -1700,7 +2070,7 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4">
@@ -1708,7 +2078,7 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4">
@@ -1716,7 +2086,7 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4">
@@ -1724,7 +2094,7 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4">
@@ -1732,33 +2102,691 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8">
+        <v>18</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8">
+        <v>19</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" s="4">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30">
+      <c r="A16" s="4">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30">
+      <c r="A17" s="4">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30">
+      <c r="A19" s="4">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4">
+        <v>15</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4">
+        <v>16</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4">
+        <v>17</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5">
         <v>18</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5">
         <v>19</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" s="4">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4">
+        <v>15</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4">
+        <v>17</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="6">
+        <v>18</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="6">
+        <v>19</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1781,19 +2809,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-    <col min="4" max="4" width="66.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1802,29 +2830,29 @@
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="18" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D1" s="18"/>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1">
+    <row r="2" spans="1:4">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="22"/>
+      <c r="C2" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="24"/>
+      <c r="A3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="17" t="s">
@@ -1832,17 +2860,17 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="18"/>
     </row>
@@ -1891,21 +2919,21 @@
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="4">
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1913,27 +2941,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="4">
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>38</v>
+        <v>72</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30">
@@ -1941,112 +2969,82 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30">
+        <v>70</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="4">
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30">
       <c r="A16" s="4">
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45">
+        <v>76</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="4">
         <v>6</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="4">
         <v>7</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>8</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4">
         <v>9</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>10</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4">
@@ -2054,7 +3052,7 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="8"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4">
@@ -2062,7 +3060,7 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="8"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4">
@@ -2070,7 +3068,7 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="8"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4">
@@ -2078,7 +3076,7 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="8"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4">
@@ -2086,7 +3084,7 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="8"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4">
@@ -2094,7 +3092,7 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="8"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4">
@@ -2102,33 +3100,340 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="8"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8">
+      <c r="A29" s="12">
         <v>18</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="8"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8">
+      <c r="A30" s="12">
         <v>19</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4">
+        <v>15</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4">
+        <v>16</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4">
+        <v>17</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="13">
+        <v>18</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="13">
+        <v>19</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2148,1311 +3453,6 @@
     <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-    <col min="4" max="4" width="61.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30">
-      <c r="A11" s="4">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="4">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30">
-      <c r="A14" s="4">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30">
-      <c r="A16" s="4">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30">
-      <c r="A17" s="4">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4">
-        <v>7</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30">
-      <c r="A19" s="4">
-        <v>8</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4">
-        <v>9</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4">
-        <v>10</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4">
-        <v>11</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4">
-        <v>12</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4">
-        <v>13</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4">
-        <v>14</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4">
-        <v>15</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4">
-        <v>16</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4">
-        <v>17</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="4">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30">
-      <c r="A14" s="4">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4">
-        <v>7</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4">
-        <v>8</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4">
-        <v>9</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4">
-        <v>10</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4">
-        <v>11</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4">
-        <v>12</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4">
-        <v>13</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4">
-        <v>14</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4">
-        <v>15</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4">
-        <v>16</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4">
-        <v>17</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="6">
-        <v>18</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="6">
-        <v>19</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="4">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30">
-      <c r="A14" s="4">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30">
-      <c r="A16" s="4">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4">
-        <v>7</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4">
-        <v>8</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4">
-        <v>9</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4">
-        <v>10</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4">
-        <v>11</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4">
-        <v>12</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4">
-        <v>13</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4">
-        <v>14</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4">
-        <v>15</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4">
-        <v>16</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4">
-        <v>17</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="12">
-        <v>18</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="12">
-        <v>19</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="4">
-        <v>2</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="4">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="4">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4">
-        <v>7</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4">
-        <v>8</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4">
-        <v>9</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4">
-        <v>10</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4">
-        <v>11</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4">
-        <v>12</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4">
-        <v>13</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4">
-        <v>14</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4">
-        <v>15</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4">
-        <v>16</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4">
-        <v>17</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="13">
-        <v>18</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="13">
-        <v>19</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>